--- a/Outputs/Peru/dataPoints.xlsx
+++ b/Outputs/Peru/dataPoints.xlsx
@@ -10008,10 +10008,10 @@
     <t>empty_value</t>
   </si>
   <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>53%</t>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>46%</t>
   </si>
   <si>
     <t>avg</t>
@@ -64008,7 +64008,7 @@
         <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4537688442211055</v>
+        <v>0.4723320158102767</v>
       </c>
       <c r="E2" t="n">
         <v>1.15</v>
@@ -64017,7 +64017,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
@@ -64031,7 +64031,7 @@
         <v>3315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5462311557788945</v>
+        <v>0.5276679841897234</v>
       </c>
       <c r="E3" t="n">
         <v>1.15</v>
@@ -64054,7 +64054,7 @@
         <v>158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4352409638554217</v>
+        <v>0.4505928853754941</v>
       </c>
       <c r="E4" t="n">
         <v>2.15</v>
@@ -64063,7 +64063,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5">
@@ -64077,7 +64077,7 @@
         <v>3315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5647590361445782</v>
+        <v>0.5494071146245059</v>
       </c>
       <c r="E5" t="n">
         <v>2.15</v>
@@ -64100,7 +64100,7 @@
         <v>158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3851963746223565</v>
+        <v>0.4178217821782178</v>
       </c>
       <c r="E6" t="n">
         <v>3.15</v>
@@ -64109,7 +64109,7 @@
         <v>1.0</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="7">
@@ -64123,7 +64123,7 @@
         <v>3315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6148036253776434</v>
+        <v>0.5821782178217823</v>
       </c>
       <c r="E7" t="n">
         <v>3.15</v>
@@ -64146,7 +64146,7 @@
         <v>158</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17293997965412003</v>
+        <v>0.1610337972166998</v>
       </c>
       <c r="E8" t="n">
         <v>1.1</v>
@@ -64155,7 +64155,7 @@
         <v>1.0</v>
       </c>
       <c r="G8" t="s">
-        <v>3316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -64169,7 +64169,7 @@
         <v>3315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.82706002034588</v>
+        <v>0.8389662027833003</v>
       </c>
       <c r="E9" t="n">
         <v>1.1</v>
@@ -64192,7 +64192,7 @@
         <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.39607448414695523</v>
+        <v>0.41453831041257366</v>
       </c>
       <c r="E10" t="n">
         <v>2.15</v>
@@ -64201,7 +64201,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
@@ -64215,7 +64215,7 @@
         <v>3315</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6039255158530448</v>
+        <v>0.5854616895874263</v>
       </c>
       <c r="E11" t="n">
         <v>2.15</v>
@@ -64238,7 +64238,7 @@
         <v>158</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24681285058643548</v>
+        <v>0.26732673267326734</v>
       </c>
       <c r="E12" t="n">
         <v>3.15</v>
@@ -64247,7 +64247,7 @@
         <v>1.0</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -64261,7 +64261,7 @@
         <v>3315</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7531871494135645</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="E13" t="n">
         <v>3.15</v>
@@ -64284,7 +64284,7 @@
         <v>158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23783241344706474</v>
+        <v>0.24313725490196078</v>
       </c>
       <c r="E14" t="n">
         <v>4.15</v>
@@ -64307,7 +64307,7 @@
         <v>3315</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7621675865529353</v>
+        <v>0.7568627450980392</v>
       </c>
       <c r="E15" t="n">
         <v>4.15</v>
@@ -64330,7 +64330,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24646464646464647</v>
+        <v>0.2648221343873518</v>
       </c>
       <c r="E16" t="n">
         <v>1.15</v>
@@ -64339,7 +64339,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -64353,7 +64353,7 @@
         <v>3315</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7535353535353535</v>
+        <v>0.7351778656126482</v>
       </c>
       <c r="E17" t="n">
         <v>1.15</v>
@@ -64376,7 +64376,7 @@
         <v>158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3967446592065107</v>
+        <v>0.464</v>
       </c>
       <c r="E18" t="n">
         <v>2.15</v>
@@ -64385,7 +64385,7 @@
         <v>1.0</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="19">
@@ -64399,7 +64399,7 @@
         <v>3315</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6032553407934893</v>
+        <v>0.536</v>
       </c>
       <c r="E19" t="n">
         <v>2.15</v>
@@ -64422,7 +64422,7 @@
         <v>158</v>
       </c>
       <c r="D20" t="n">
-        <v>0.26431492842535786</v>
+        <v>0.30985915492957744</v>
       </c>
       <c r="E20" t="n">
         <v>3.15</v>
@@ -64431,7 +64431,7 @@
         <v>1.0</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -64445,7 +64445,7 @@
         <v>3315</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7356850715746421</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="E21" t="n">
         <v>3.15</v>
@@ -64468,7 +64468,7 @@
         <v>158</v>
       </c>
       <c r="D22" t="n">
-        <v>0.532565130260521</v>
+        <v>0.6105675146771037</v>
       </c>
       <c r="E22" t="n">
         <v>4.15</v>
@@ -64477,7 +64477,7 @@
         <v>1.0</v>
       </c>
       <c r="G22" t="s">
-        <v>3317</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
@@ -64491,7 +64491,7 @@
         <v>3315</v>
       </c>
       <c r="D23" t="n">
-        <v>0.467434869739479</v>
+        <v>0.3894324853228963</v>
       </c>
       <c r="E23" t="n">
         <v>4.15</v>
@@ -64514,7 +64514,7 @@
         <v>158</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3918640576725026</v>
+        <v>0.3953722334004024</v>
       </c>
       <c r="E24" t="n">
         <v>1.15</v>
@@ -64523,7 +64523,7 @@
         <v>1.0</v>
       </c>
       <c r="G24" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -64537,7 +64537,7 @@
         <v>3315</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6081359423274975</v>
+        <v>0.6046277665995976</v>
       </c>
       <c r="E25" t="n">
         <v>1.15</v>
@@ -64560,7 +64560,7 @@
         <v>158</v>
       </c>
       <c r="D26" t="n">
-        <v>0.521805661820964</v>
+        <v>0.4794794794794795</v>
       </c>
       <c r="E26" t="n">
         <v>2.15</v>
@@ -64569,7 +64569,7 @@
         <v>1.0</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -64583,7 +64583,7 @@
         <v>3315</v>
       </c>
       <c r="D27" t="n">
-        <v>0.478194338179036</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="E27" t="n">
         <v>2.15</v>
@@ -64606,7 +64606,7 @@
         <v>158</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4097898513582778</v>
+        <v>0.437125748502994</v>
       </c>
       <c r="E28" t="n">
         <v>3.15</v>
@@ -64615,7 +64615,7 @@
         <v>1.0</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
@@ -64629,7 +64629,7 @@
         <v>3315</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5902101486417222</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="E29" t="n">
         <v>3.15</v>
@@ -64652,7 +64652,7 @@
         <v>158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.595134443021767</v>
+        <v>0.6114457831325302</v>
       </c>
       <c r="E30" t="n">
         <v>4.15</v>
@@ -64661,7 +64661,7 @@
         <v>1.0</v>
       </c>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31">
@@ -64675,7 +64675,7 @@
         <v>3315</v>
       </c>
       <c r="D31" t="n">
-        <v>0.404865556978233</v>
+        <v>0.3885542168674698</v>
       </c>
       <c r="E31" t="n">
         <v>4.15</v>
@@ -64698,7 +64698,7 @@
         <v>158</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5161125319693095</v>
+        <v>0.525</v>
       </c>
       <c r="E32" t="n">
         <v>5.15</v>
@@ -64721,7 +64721,7 @@
         <v>3315</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4838874680306905</v>
+        <v>0.475</v>
       </c>
       <c r="E33" t="n">
         <v>5.15</v>
@@ -64744,7 +64744,7 @@
         <v>158</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34220436856640724</v>
+        <v>0.38591269841269843</v>
       </c>
       <c r="E34" t="n">
         <v>1.15</v>
@@ -64753,7 +64753,7 @@
         <v>1.0</v>
       </c>
       <c r="G34" t="s">
-        <v>3247</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
@@ -64767,7 +64767,7 @@
         <v>3315</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6577956314335928</v>
+        <v>0.6140873015873016</v>
       </c>
       <c r="E35" t="n">
         <v>1.15</v>
@@ -64790,7 +64790,7 @@
         <v>158</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4035897435897436</v>
+        <v>0.4729458917835671</v>
       </c>
       <c r="E36" t="n">
         <v>2.15</v>
@@ -64799,7 +64799,7 @@
         <v>1.0</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37">
@@ -64813,7 +64813,7 @@
         <v>3315</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5964102564102565</v>
+        <v>0.5270541082164328</v>
       </c>
       <c r="E37" t="n">
         <v>2.15</v>
@@ -64836,7 +64836,7 @@
         <v>158</v>
       </c>
       <c r="D38" t="n">
-        <v>0.45426195426195426</v>
+        <v>0.5456389452332657</v>
       </c>
       <c r="E38" t="n">
         <v>3.15</v>
@@ -64845,7 +64845,7 @@
         <v>1.0</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
@@ -64859,7 +64859,7 @@
         <v>3315</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5457380457380457</v>
+        <v>0.4543610547667343</v>
       </c>
       <c r="E39" t="n">
         <v>3.15</v>
@@ -64882,7 +64882,7 @@
         <v>158</v>
       </c>
       <c r="D40" t="n">
-        <v>0.26267748478701824</v>
+        <v>0.2991967871485944</v>
       </c>
       <c r="E40" t="n">
         <v>4.15</v>
@@ -64891,7 +64891,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -64905,7 +64905,7 @@
         <v>3315</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7373225152129818</v>
+        <v>0.7008032128514057</v>
       </c>
       <c r="E41" t="n">
         <v>4.15</v>
@@ -64928,7 +64928,7 @@
         <v>158</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2710257050162216</v>
+        <v>0.2819253438113949</v>
       </c>
       <c r="E42" t="n">
         <v>1.15</v>
@@ -64937,7 +64937,7 @@
         <v>1.0</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43">
@@ -64951,7 +64951,7 @@
         <v>3315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7289742949837784</v>
+        <v>0.7180746561886051</v>
       </c>
       <c r="E43" t="n">
         <v>1.15</v>
@@ -64974,7 +64974,7 @@
         <v>158</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4145176695319962</v>
+        <v>0.40458015267175573</v>
       </c>
       <c r="E44" t="n">
         <v>2.15</v>
@@ -64983,7 +64983,7 @@
         <v>1.0</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45">
@@ -64997,7 +64997,7 @@
         <v>3315</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5854823304680038</v>
+        <v>0.5954198473282443</v>
       </c>
       <c r="E45" t="n">
         <v>2.15</v>
@@ -65020,7 +65020,7 @@
         <v>158</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2998236331569665</v>
+        <v>0.33562992125984253</v>
       </c>
       <c r="E46" t="n">
         <v>3.15</v>
@@ -65029,7 +65029,7 @@
         <v>1.0</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="47">
@@ -65043,7 +65043,7 @@
         <v>3315</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7001763668430335</v>
+        <v>0.6643700787401574</v>
       </c>
       <c r="E47" t="n">
         <v>3.15</v>
@@ -65066,7 +65066,7 @@
         <v>158</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4062186559679037</v>
+        <v>0.40039447731755423</v>
       </c>
       <c r="E48" t="n">
         <v>4.15</v>
@@ -65075,7 +65075,7 @@
         <v>1.0</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49">
@@ -65089,7 +65089,7 @@
         <v>3315</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5937813440320963</v>
+        <v>0.5996055226824457</v>
       </c>
       <c r="E49" t="n">
         <v>4.15</v>
@@ -65112,7 +65112,7 @@
         <v>158</v>
       </c>
       <c r="D50" t="n">
-        <v>0.25114854517611024</v>
+        <v>0.2414486921529175</v>
       </c>
       <c r="E50" t="n">
         <v>1.15</v>
@@ -65121,7 +65121,7 @@
         <v>1.0</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51">
@@ -65135,7 +65135,7 @@
         <v>3315</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7488514548238898</v>
+        <v>0.7585513078470825</v>
       </c>
       <c r="E51" t="n">
         <v>1.15</v>
@@ -65158,7 +65158,7 @@
         <v>158</v>
       </c>
       <c r="D52" t="n">
-        <v>0.31310555838857723</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E52" t="n">
         <v>2.15</v>
@@ -65167,7 +65167,7 @@
         <v>1.0</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -65181,7 +65181,7 @@
         <v>3315</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6868944416114228</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E53" t="n">
         <v>2.15</v>
@@ -65204,7 +65204,7 @@
         <v>158</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3181118522319138</v>
+        <v>0.342685370741483</v>
       </c>
       <c r="E54" t="n">
         <v>3.15</v>
@@ -65213,7 +65213,7 @@
         <v>1.0</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="55">
@@ -65227,7 +65227,7 @@
         <v>3315</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6818881477680863</v>
+        <v>0.657314629258517</v>
       </c>
       <c r="E55" t="n">
         <v>3.15</v>
@@ -65250,7 +65250,7 @@
         <v>158</v>
       </c>
       <c r="D56" t="n">
-        <v>0.24693877551020407</v>
+        <v>0.2834331337325349</v>
       </c>
       <c r="E56" t="n">
         <v>4.15</v>
@@ -65259,7 +65259,7 @@
         <v>1.0</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
@@ -65273,7 +65273,7 @@
         <v>3315</v>
       </c>
       <c r="D57" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7165668662674651</v>
       </c>
       <c r="E57" t="n">
         <v>4.15</v>
@@ -71751,4 +71751,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9850A052-A62E-4095-9A67-2C27FCAF5123}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EE1DD0E-040D-47EC-A253-76E16DE1CD81}"/>
 </file>